--- a/1_filtered_data.xlsx
+++ b/1_filtered_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="213">
   <si>
     <t>device_type</t>
   </si>
@@ -26063,7 +26063,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -26145,708 +26145,58 @@
         <v>184</v>
       </c>
       <c r="D2">
-        <v>12239.2</v>
+        <v>12425.43636363636</v>
       </c>
       <c r="E2">
-        <v>16012.7</v>
+        <v>16248.84545454546</v>
       </c>
       <c r="F2">
-        <v>19880.6</v>
+        <v>19857.51818181818</v>
       </c>
       <c r="G2">
-        <v>18382.5</v>
+        <v>18727.88181818182</v>
       </c>
       <c r="H2">
-        <v>17609.2</v>
+        <v>17806.14545454545</v>
       </c>
       <c r="I2">
-        <v>16400.1</v>
+        <v>15983.59090909091</v>
       </c>
       <c r="J2">
-        <v>10050.1</v>
+        <v>10612.63636363636</v>
       </c>
       <c r="K2">
-        <v>10829.4</v>
+        <v>11068.88181818182</v>
       </c>
       <c r="L2">
-        <v>26659.7</v>
+        <v>27466.08181818182</v>
       </c>
       <c r="M2">
-        <v>9716.92</v>
+        <v>9779.031818181818</v>
       </c>
       <c r="N2">
-        <v>24171.8</v>
+        <v>22157.04545454546</v>
       </c>
       <c r="O2">
-        <v>8035.13</v>
+        <v>7849.564545454546</v>
       </c>
       <c r="P2">
-        <v>20053.3</v>
+        <v>19993.2</v>
       </c>
       <c r="Q2">
-        <v>18650.5</v>
+        <v>18297.85454545455</v>
       </c>
       <c r="R2">
-        <v>18743</v>
+        <v>19312.49090909091</v>
       </c>
       <c r="S2">
-        <v>18831.5</v>
+        <v>19474.08181818182</v>
       </c>
       <c r="T2">
-        <v>4506.57</v>
+        <v>4477.12090909091</v>
       </c>
       <c r="U2">
-        <v>2669.11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3">
-        <v>12177.9</v>
-      </c>
-      <c r="E3">
-        <v>15910.7</v>
-      </c>
-      <c r="F3">
-        <v>19853.6</v>
-      </c>
-      <c r="G3">
-        <v>18305.3</v>
-      </c>
-      <c r="H3">
-        <v>17428.6</v>
-      </c>
-      <c r="I3">
-        <v>16251</v>
-      </c>
-      <c r="J3">
-        <v>10274</v>
-      </c>
-      <c r="K3">
-        <v>10929.7</v>
-      </c>
-      <c r="L3">
-        <v>27441.4</v>
-      </c>
-      <c r="M3">
-        <v>9805</v>
-      </c>
-      <c r="N3">
-        <v>23930.3</v>
-      </c>
-      <c r="O3">
-        <v>8045.99</v>
-      </c>
-      <c r="P3">
-        <v>19909.7</v>
-      </c>
-      <c r="Q3">
-        <v>18452.6</v>
-      </c>
-      <c r="R3">
-        <v>19004.1</v>
-      </c>
-      <c r="S3">
-        <v>19253.3</v>
-      </c>
-      <c r="T3">
-        <v>4498.24</v>
-      </c>
-      <c r="U3">
-        <v>2666.46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D4">
-        <v>12204.3</v>
-      </c>
-      <c r="E4">
-        <v>15829.9</v>
-      </c>
-      <c r="F4">
-        <v>19524</v>
-      </c>
-      <c r="G4">
-        <v>18691.6</v>
-      </c>
-      <c r="H4">
-        <v>17657.8</v>
-      </c>
-      <c r="I4">
-        <v>15865.8</v>
-      </c>
-      <c r="J4">
-        <v>10554.8</v>
-      </c>
-      <c r="K4">
-        <v>11061.9</v>
-      </c>
-      <c r="L4">
-        <v>27501.8</v>
-      </c>
-      <c r="M4">
-        <v>9733.950000000001</v>
-      </c>
-      <c r="N4">
-        <v>23279.1</v>
-      </c>
-      <c r="O4">
-        <v>7971.97</v>
-      </c>
-      <c r="P4">
-        <v>19565.9</v>
-      </c>
-      <c r="Q4">
-        <v>18235.7</v>
-      </c>
-      <c r="R4">
-        <v>19108.1</v>
-      </c>
-      <c r="S4">
-        <v>19504.7</v>
-      </c>
-      <c r="T4">
-        <v>4467.12</v>
-      </c>
-      <c r="U4">
-        <v>2622.35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D5">
-        <v>12358.3</v>
-      </c>
-      <c r="E5">
-        <v>16239.7</v>
-      </c>
-      <c r="F5">
-        <v>19113.7</v>
-      </c>
-      <c r="G5">
-        <v>18712</v>
-      </c>
-      <c r="H5">
-        <v>17618.8</v>
-      </c>
-      <c r="I5">
-        <v>14996.9</v>
-      </c>
-      <c r="J5">
-        <v>10776.1</v>
-      </c>
-      <c r="K5">
-        <v>11085.1</v>
-      </c>
-      <c r="L5">
-        <v>27365.1</v>
-      </c>
-      <c r="M5">
-        <v>9659.93</v>
-      </c>
-      <c r="N5">
-        <v>18827</v>
-      </c>
-      <c r="O5">
-        <v>7354.61</v>
-      </c>
-      <c r="P5">
-        <v>19706.4</v>
-      </c>
-      <c r="Q5">
-        <v>17200.9</v>
-      </c>
-      <c r="R5">
-        <v>19201.6</v>
-      </c>
-      <c r="S5">
-        <v>18763.4</v>
-      </c>
-      <c r="T5">
-        <v>4308.75</v>
-      </c>
-      <c r="U5">
-        <v>2710.58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D6">
-        <v>12401.7</v>
-      </c>
-      <c r="E6">
-        <v>16261.9</v>
-      </c>
-      <c r="F6">
-        <v>19323.5</v>
-      </c>
-      <c r="G6">
-        <v>18801.1</v>
-      </c>
-      <c r="H6">
-        <v>17700.2</v>
-      </c>
-      <c r="I6">
-        <v>15232.9</v>
-      </c>
-      <c r="J6">
-        <v>10763.9</v>
-      </c>
-      <c r="K6">
-        <v>11094.4</v>
-      </c>
-      <c r="L6">
-        <v>27408.4</v>
-      </c>
-      <c r="M6">
-        <v>9693.610000000001</v>
-      </c>
-      <c r="N6">
-        <v>20588.7</v>
-      </c>
-      <c r="O6">
-        <v>7472.11</v>
-      </c>
-      <c r="P6">
-        <v>19886.1</v>
-      </c>
-      <c r="Q6">
-        <v>17847.3</v>
-      </c>
-      <c r="R6">
-        <v>19361.9</v>
-      </c>
-      <c r="S6">
-        <v>19101.8</v>
-      </c>
-      <c r="T6">
-        <v>4404.33</v>
-      </c>
-      <c r="U6">
-        <v>2708.82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7">
-        <v>12481.7</v>
-      </c>
-      <c r="E7">
-        <v>16376.4</v>
-      </c>
-      <c r="F7">
-        <v>19955.8</v>
-      </c>
-      <c r="G7">
-        <v>18829.2</v>
-      </c>
-      <c r="H7">
-        <v>17943.1</v>
-      </c>
-      <c r="I7">
-        <v>16140.1</v>
-      </c>
-      <c r="J7">
-        <v>10748.6</v>
-      </c>
-      <c r="K7">
-        <v>11123.9</v>
-      </c>
-      <c r="L7">
-        <v>27570.2</v>
-      </c>
-      <c r="M7">
-        <v>9748.379999999999</v>
-      </c>
-      <c r="N7">
-        <v>20765.1</v>
-      </c>
-      <c r="O7">
-        <v>7778.75</v>
-      </c>
-      <c r="P7">
-        <v>19924.6</v>
-      </c>
-      <c r="Q7">
-        <v>17924.8</v>
-      </c>
-      <c r="R7">
-        <v>19388.5</v>
-      </c>
-      <c r="S7">
-        <v>19631.6</v>
-      </c>
-      <c r="T7">
-        <v>4431.55</v>
-      </c>
-      <c r="U7">
-        <v>2742.35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D8">
-        <v>12679.9</v>
-      </c>
-      <c r="E8">
-        <v>16561.1</v>
-      </c>
-      <c r="F8">
-        <v>20418.1</v>
-      </c>
-      <c r="G8">
-        <v>19063.5</v>
-      </c>
-      <c r="H8">
-        <v>18093</v>
-      </c>
-      <c r="I8">
-        <v>16546.7</v>
-      </c>
-      <c r="J8">
-        <v>10732.4</v>
-      </c>
-      <c r="K8">
-        <v>11152.5</v>
-      </c>
-      <c r="L8">
-        <v>27653.4</v>
-      </c>
-      <c r="M8">
-        <v>9940.459999999999</v>
-      </c>
-      <c r="N8">
-        <v>22969.5</v>
-      </c>
-      <c r="O8">
-        <v>8002.53</v>
-      </c>
-      <c r="P8">
-        <v>20388.4</v>
-      </c>
-      <c r="Q8">
-        <v>18845.1</v>
-      </c>
-      <c r="R8">
-        <v>19529.6</v>
-      </c>
-      <c r="S8">
-        <v>19870.1</v>
-      </c>
-      <c r="T8">
-        <v>4572.14</v>
-      </c>
-      <c r="U8">
-        <v>2779.41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>191</v>
-      </c>
-      <c r="D9">
-        <v>12610.1</v>
-      </c>
-      <c r="E9">
-        <v>16480.3</v>
-      </c>
-      <c r="F9">
-        <v>20336.4</v>
-      </c>
-      <c r="G9">
-        <v>18901.3</v>
-      </c>
-      <c r="H9">
-        <v>18021.8</v>
-      </c>
-      <c r="I9">
-        <v>16364.5</v>
-      </c>
-      <c r="J9">
-        <v>10725.4</v>
-      </c>
-      <c r="K9">
-        <v>11132.7</v>
-      </c>
-      <c r="L9">
-        <v>27696.7</v>
-      </c>
-      <c r="M9">
-        <v>9889.389999999999</v>
-      </c>
-      <c r="N9">
-        <v>22925.2</v>
-      </c>
-      <c r="O9">
-        <v>7938.69</v>
-      </c>
-      <c r="P9">
-        <v>20298.1</v>
-      </c>
-      <c r="Q9">
-        <v>18751.9</v>
-      </c>
-      <c r="R9">
-        <v>19541.7</v>
-      </c>
-      <c r="S9">
-        <v>19811.4</v>
-      </c>
-      <c r="T9">
-        <v>4555.47</v>
-      </c>
-      <c r="U9">
-        <v>2770.58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>192</v>
-      </c>
-      <c r="D10">
-        <v>12599.1</v>
-      </c>
-      <c r="E10">
-        <v>16416.8</v>
-      </c>
-      <c r="F10">
-        <v>20190.7</v>
-      </c>
-      <c r="G10">
-        <v>18851.2</v>
-      </c>
-      <c r="H10">
-        <v>17983.5</v>
-      </c>
-      <c r="I10">
-        <v>16168</v>
-      </c>
-      <c r="J10">
-        <v>10715.8</v>
-      </c>
-      <c r="K10">
-        <v>11123.9</v>
-      </c>
-      <c r="L10">
-        <v>27545.1</v>
-      </c>
-      <c r="M10">
-        <v>9862</v>
-      </c>
-      <c r="N10">
-        <v>22316.3</v>
-      </c>
-      <c r="O10">
-        <v>7927.82</v>
-      </c>
-      <c r="P10">
-        <v>20179.6</v>
-      </c>
-      <c r="Q10">
-        <v>18619.1</v>
-      </c>
-      <c r="R10">
-        <v>19512.6</v>
-      </c>
-      <c r="S10">
-        <v>19806.7</v>
-      </c>
-      <c r="T10">
-        <v>4541.58</v>
-      </c>
-      <c r="U10">
-        <v>2759.99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>193</v>
-      </c>
-      <c r="D11">
-        <v>12484.2</v>
-      </c>
-      <c r="E11">
-        <v>16332.1</v>
-      </c>
-      <c r="F11">
-        <v>20021.7</v>
-      </c>
-      <c r="G11">
-        <v>18722.2</v>
-      </c>
-      <c r="H11">
-        <v>17925.3</v>
-      </c>
-      <c r="I11">
-        <v>16037.6</v>
-      </c>
-      <c r="J11">
-        <v>10704</v>
-      </c>
-      <c r="K11">
-        <v>11091.9</v>
-      </c>
-      <c r="L11">
-        <v>27573.6</v>
-      </c>
-      <c r="M11">
-        <v>9779.1</v>
-      </c>
-      <c r="N11">
-        <v>21910.7</v>
-      </c>
-      <c r="O11">
-        <v>7848.02</v>
-      </c>
-      <c r="P11">
-        <v>20015.6</v>
-      </c>
-      <c r="Q11">
-        <v>18373.4</v>
-      </c>
-      <c r="R11">
-        <v>19500.6</v>
-      </c>
-      <c r="S11">
-        <v>19740.9</v>
-      </c>
-      <c r="T11">
-        <v>4495.46</v>
-      </c>
-      <c r="U11">
-        <v>2735.29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D12">
-        <v>12443.4</v>
-      </c>
-      <c r="E12">
-        <v>16315.7</v>
-      </c>
-      <c r="F12">
-        <v>19814.6</v>
-      </c>
-      <c r="G12">
-        <v>18746.8</v>
-      </c>
-      <c r="H12">
-        <v>17886.3</v>
-      </c>
-      <c r="I12">
-        <v>15815.9</v>
-      </c>
-      <c r="J12">
-        <v>10693.9</v>
-      </c>
-      <c r="K12">
-        <v>11132.3</v>
-      </c>
-      <c r="L12">
-        <v>27711.5</v>
-      </c>
-      <c r="M12">
-        <v>9740.610000000001</v>
-      </c>
-      <c r="N12">
-        <v>22043.8</v>
-      </c>
-      <c r="O12">
-        <v>7969.59</v>
-      </c>
-      <c r="P12">
-        <v>19997.5</v>
-      </c>
-      <c r="Q12">
-        <v>18375.1</v>
-      </c>
-      <c r="R12">
-        <v>19545.7</v>
-      </c>
-      <c r="S12">
-        <v>19899.5</v>
-      </c>
-      <c r="T12">
-        <v>4467.12</v>
-      </c>
-      <c r="U12">
-        <v>2729.11</v>
+        <v>2717.640909090909</v>
       </c>
     </row>
   </sheetData>
